--- a/docs/database/SQL.xlsx
+++ b/docs/database/SQL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahah\OneDrive\Desktop\大專\FinalProject_GameForum\docs\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\大專\FinalProject_GameForum\docs\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9EF1D3-F172-46ED-BDEA-3563D6FB0C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E13639-F873-4208-BA23-17AE8EE8EBE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{398CB260-A11B-40D5-9D47-F5309714621C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="96">
   <si>
     <t>新聞區</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,7 +254,167 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Picture</t>
+    <t>日期 ( DateTime )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數量 ( int )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看板頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.看板區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>討論區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>討論區文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章編號( int )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章標題 ( nvarchar(50) )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.文章內容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.看板首頁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.文章顯示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.使用者&amp;留言板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViewHistory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發文畫面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用資料表名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.發文 或 草稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.使用者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>個人頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.使用者資訊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.文章收藏&amp;日誌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城首頁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.商品展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.廣告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結帳畫面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.訂單明細</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.收件人資訊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.加購商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.商品資訊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.補充圖片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductPicture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單紀錄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.訂單資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登入註冊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.會員登入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.會員資訊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -295,7 +455,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -318,26 +478,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -354,12 +501,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -696,28 +837,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6196660F-4888-4018-8538-EDC00B90FF4D}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.75" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="19.875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -752,17 +893,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -787,7 +928,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -816,7 +957,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
@@ -849,9 +990,9 @@
       </c>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
@@ -865,54 +1006,50 @@
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="2"/>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>6</v>
@@ -920,91 +1057,186 @@
       <c r="F7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>4</v>
@@ -1012,31 +1244,321 @@
       <c r="C16" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="B17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>32</v>
       </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
